--- a/datasets/presidents.xlsx
+++ b/datasets/presidents.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>President</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>01/14/1019</t>
+  </si>
+  <si>
+    <t>Ricardo Martinelli</t>
   </si>
 </sst>
 </file>
@@ -498,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,208 +656,222 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="3">
-        <v>41821</v>
+        <v>39995</v>
       </c>
       <c r="D11" s="3">
-        <v>43646</v>
+        <v>41820</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="3">
-        <v>43647</v>
+        <v>41821</v>
       </c>
       <c r="D12" s="3">
-        <v>45473</v>
+        <v>43646</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="3">
-        <v>41137</v>
+        <v>43647</v>
       </c>
       <c r="D13" s="3">
-        <v>44059</v>
+        <v>45473</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="3">
+        <v>41137</v>
+      </c>
+      <c r="D14" s="3">
         <v>44059</v>
-      </c>
-      <c r="D14" s="3">
-        <v>46981</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="3">
-        <v>40922</v>
+        <v>44059</v>
       </c>
       <c r="D15" s="3">
-        <v>42250</v>
+        <v>46981</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="3">
+        <v>40922</v>
+      </c>
+      <c r="D16" s="3">
         <v>42250</v>
-      </c>
-      <c r="D16" s="3">
-        <v>42383</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="3">
+        <v>42250</v>
+      </c>
+      <c r="D17" s="3">
         <v>42383</v>
-      </c>
-      <c r="D17" s="3">
-        <v>43844</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="3">
+        <v>42383</v>
+      </c>
+      <c r="D18" s="3">
         <v>43844</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="3">
-        <v>42760</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>38</v>
+        <v>43844</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="3">
-        <v>43471</v>
-      </c>
-      <c r="D20" s="3">
-        <v>45297</v>
+        <v>42760</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="3">
-        <v>39092</v>
+        <v>43471</v>
       </c>
       <c r="D21" s="3">
-        <v>44571</v>
+        <v>45297</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="3">
-        <v>41276</v>
+        <v>39092</v>
       </c>
       <c r="D22" s="3">
-        <v>42737</v>
+        <v>44571</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="3">
+        <v>41276</v>
+      </c>
+      <c r="D23" s="3">
         <v>42737</v>
-      </c>
-      <c r="D23" s="3">
-        <v>43679</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="3">
+        <v>42737</v>
+      </c>
+      <c r="D24" s="3">
         <v>43679</v>
-      </c>
-      <c r="D24" s="3">
-        <v>43684</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="3">
+        <v>43679</v>
+      </c>
+      <c r="D25" s="3">
         <v>43684</v>
       </c>
-      <c r="D25" s="3">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="3">
+        <v>43684</v>
+      </c>
+      <c r="D26" s="3">
         <v>43832</v>
       </c>
     </row>
